--- a/AdmissionsCommittee/Reports/Files/Приёмная коммисия.xlsx
+++ b/AdmissionsCommittee/Reports/Files/Приёмная коммисия.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
   <si>
     <t>Абитуриенты</t>
   </si>
@@ -68,22 +68,25 @@
     <t>Район</t>
   </si>
   <si>
-    <t>qfwe</t>
-  </si>
-  <si>
-    <t>qwefqwef</t>
-  </si>
-  <si>
-    <t>qewfqw</t>
-  </si>
-  <si>
-    <t>Ж</t>
-  </si>
-  <si>
-    <t>12.12.2005</t>
-  </si>
-  <si>
-    <t>222</t>
+    <t>Иван</t>
+  </si>
+  <si>
+    <t>Иванов</t>
+  </si>
+  <si>
+    <t>Иванович</t>
+  </si>
+  <si>
+    <t>М</t>
+  </si>
+  <si>
+    <t>19.04.2005</t>
+  </si>
+  <si>
+    <t>123456789</t>
+  </si>
+  <si>
+    <t>01.01.0001</t>
   </si>
   <si>
     <t>Беларусь</t>
@@ -102,36 +105,6 @@
   </si>
   <si>
     <t>За пределами Костромской области</t>
-  </si>
-  <si>
-    <t>Михаил</t>
-  </si>
-  <si>
-    <t>Вагин</t>
-  </si>
-  <si>
-    <t>Юрьевич</t>
-  </si>
-  <si>
-    <t>М</t>
-  </si>
-  <si>
-    <t>19.04.2005</t>
-  </si>
-  <si>
-    <t>2222</t>
-  </si>
-  <si>
-    <t>Российская Федерация</t>
-  </si>
-  <si>
-    <t>После 9-го класса</t>
-  </si>
-  <si>
-    <t>Костромская область</t>
-  </si>
-  <si>
-    <t>Судиславский район</t>
   </si>
 </sst>
 </file>
@@ -180,22 +153,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:Q4"/>
+  <dimension ref="A1:Q3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="9.140625" customWidth="1"/>
-    <col min="2" max="2" width="9.517234802246094" customWidth="1"/>
+    <col min="2" max="2" width="9.153023719787598" customWidth="1"/>
     <col min="3" max="3" width="12.878005027770996" customWidth="1"/>
     <col min="4" max="4" width="9.140625" customWidth="1"/>
     <col min="5" max="5" width="14.858658790588379" customWidth="1" style="1"/>
-    <col min="6" max="6" width="9.140625" customWidth="1"/>
+    <col min="6" max="6" width="10.5413236618042" customWidth="1"/>
     <col min="7" max="7" width="16.083269119262695" customWidth="1" style="1"/>
     <col min="8" max="8" width="9.140625" customWidth="1"/>
     <col min="9" max="9" width="9.173484802246094" customWidth="1"/>
-    <col min="10" max="10" width="21.948501586914062" customWidth="1"/>
+    <col min="10" max="10" width="12.589500427246094" customWidth="1"/>
     <col min="11" max="11" width="17.965709686279297" customWidth="1"/>
     <col min="12" max="12" width="13.828432083129883" customWidth="1"/>
     <col min="13" max="13" width="21.437992095947266" customWidth="1"/>
@@ -283,22 +256,22 @@
         <v>23</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="H3" s="0" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I3" s="0" t="b">
         <v>1</v>
       </c>
       <c r="J3" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="K3" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="L3" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="M3" s="0">
         <v>4</v>
@@ -307,66 +280,13 @@
         <v>1</v>
       </c>
       <c r="O3" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="P3" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="Q3" s="0" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="0" t="s">
         <v>30</v>
-      </c>
-      <c r="B4" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="C4" s="0" t="s">
-        <v>32</v>
-      </c>
-      <c r="D4" s="0" t="s">
-        <v>33</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="F4" s="0" t="s">
-        <v>35</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="H4" s="0" t="b">
-        <v>1</v>
-      </c>
-      <c r="I4" s="0" t="b">
-        <v>1</v>
-      </c>
-      <c r="J4" s="0" t="s">
-        <v>36</v>
-      </c>
-      <c r="K4" s="0" t="s">
-        <v>37</v>
-      </c>
-      <c r="L4" s="0" t="s">
-        <v>26</v>
-      </c>
-      <c r="M4" s="0">
-        <v>5</v>
-      </c>
-      <c r="N4" s="0" t="b">
-        <v>1</v>
-      </c>
-      <c r="O4" s="0" t="s">
-        <v>27</v>
-      </c>
-      <c r="P4" s="0" t="s">
-        <v>38</v>
-      </c>
-      <c r="Q4" s="0" t="s">
-        <v>39</v>
       </c>
     </row>
   </sheetData>

--- a/AdmissionsCommittee/Reports/Files/Приёмная коммисия.xlsx
+++ b/AdmissionsCommittee/Reports/Files/Приёмная коммисия.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t>Абитуриенты</t>
   </si>
@@ -32,6 +32,9 @@
     <t>Дата рождения</t>
   </si>
   <si>
+    <t>Возраст</t>
+  </si>
+  <si>
     <t>СНИЛС</t>
   </si>
   <si>
@@ -66,45 +69,6 @@
   </si>
   <si>
     <t>Район</t>
-  </si>
-  <si>
-    <t>Иван</t>
-  </si>
-  <si>
-    <t>Иванов</t>
-  </si>
-  <si>
-    <t>Иванович</t>
-  </si>
-  <si>
-    <t>М</t>
-  </si>
-  <si>
-    <t>19.04.2005</t>
-  </si>
-  <si>
-    <t>123456789</t>
-  </si>
-  <si>
-    <t>01.01.0001</t>
-  </si>
-  <si>
-    <t>Беларусь</t>
-  </si>
-  <si>
-    <t>После 11-го класса</t>
-  </si>
-  <si>
-    <t>Отсутствует</t>
-  </si>
-  <si>
-    <t>Нет</t>
-  </si>
-  <si>
-    <t>Иностранный гражданин</t>
-  </si>
-  <si>
-    <t>За пределами Костромской области</t>
   </si>
 </sst>
 </file>
@@ -153,7 +117,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:Q3"/>
+  <dimension ref="A1:R2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -164,18 +128,19 @@
     <col min="3" max="3" width="12.878005027770996" customWidth="1"/>
     <col min="4" max="4" width="9.140625" customWidth="1"/>
     <col min="5" max="5" width="14.858658790588379" customWidth="1" style="1"/>
-    <col min="6" max="6" width="10.5413236618042" customWidth="1"/>
-    <col min="7" max="7" width="16.083269119262695" customWidth="1" style="1"/>
-    <col min="8" max="8" width="9.140625" customWidth="1"/>
-    <col min="9" max="9" width="9.173484802246094" customWidth="1"/>
-    <col min="10" max="10" width="12.589500427246094" customWidth="1"/>
-    <col min="11" max="11" width="17.965709686279297" customWidth="1"/>
-    <col min="12" max="12" width="13.828432083129883" customWidth="1"/>
-    <col min="13" max="13" width="21.437992095947266" customWidth="1"/>
-    <col min="14" max="14" width="18.545787811279297" customWidth="1"/>
-    <col min="15" max="15" width="11.496866226196289" customWidth="1"/>
-    <col min="16" max="16" width="23.800249099731445" customWidth="1"/>
-    <col min="17" max="17" width="33.92961883544922" customWidth="1"/>
+    <col min="6" max="6" width="9.140625" customWidth="1"/>
+    <col min="7" max="7" width="9.140625" customWidth="1" style="1"/>
+    <col min="8" max="8" width="16.083269119262695" customWidth="1"/>
+    <col min="9" max="9" width="9.140625" customWidth="1"/>
+    <col min="10" max="10" width="9.173484802246094" customWidth="1"/>
+    <col min="11" max="11" width="12.589500427246094" customWidth="1"/>
+    <col min="12" max="12" width="12.955758094787598" customWidth="1"/>
+    <col min="13" max="13" width="13.828432083129883" customWidth="1"/>
+    <col min="14" max="14" width="21.437992095947266" customWidth="1"/>
+    <col min="15" max="15" width="18.545787811279297" customWidth="1"/>
+    <col min="16" max="16" width="11.496866226196289" customWidth="1"/>
+    <col min="17" max="17" width="19.98933219909668" customWidth="1"/>
+    <col min="18" max="18" width="9.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -235,58 +200,8 @@
       <c r="Q2" s="0" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="0" t="s">
+      <c r="R2" s="0" t="s">
         <v>18</v>
-      </c>
-      <c r="B3" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="C3" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="D3" s="0" t="s">
-        <v>21</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="F3" s="0" t="s">
-        <v>23</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="H3" s="0" t="b">
-        <v>1</v>
-      </c>
-      <c r="I3" s="0" t="b">
-        <v>1</v>
-      </c>
-      <c r="J3" s="0" t="s">
-        <v>25</v>
-      </c>
-      <c r="K3" s="0" t="s">
-        <v>26</v>
-      </c>
-      <c r="L3" s="0" t="s">
-        <v>27</v>
-      </c>
-      <c r="M3" s="0">
-        <v>4</v>
-      </c>
-      <c r="N3" s="0" t="b">
-        <v>1</v>
-      </c>
-      <c r="O3" s="0" t="s">
-        <v>28</v>
-      </c>
-      <c r="P3" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q3" s="0" t="s">
-        <v>30</v>
       </c>
     </row>
   </sheetData>
